--- a/playground/Lotto/results/TillDec1.xlsx
+++ b/playground/Lotto/results/TillDec1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirin\Documents\GitHub\heartrhythmbox\playground\Lotto\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFA3A4D9-E46F-4966-921F-BADB2F6732BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1DD187-883B-4627-96DA-A9B93A0B5B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="14032" xr2:uid="{A359F6CC-D3FF-409C-A978-A5408601E6CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Model 1</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Prediction</t>
+  </si>
+  <si>
+    <t>last 100</t>
+  </si>
+  <si>
+    <t>w date and PM</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83FCE21-7005-4AB4-B703-EA04F3F262E8}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.69921875" defaultRowHeight="21.35" x14ac:dyDescent="0.45"/>
@@ -427,15 +433,21 @@
     <col min="5" max="16384" width="19.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +457,20 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -459,8 +483,23 @@
       <c r="D3" s="1">
         <v>0.23250000000000001</v>
       </c>
+      <c r="E3" s="1">
+        <v>0.26274900000000001</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15.188599999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.2475</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -472,6 +511,21 @@
       </c>
       <c r="D4" s="1">
         <v>58</v>
+      </c>
+      <c r="E4" s="1">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/playground/Lotto/results/TillDec1.xlsx
+++ b/playground/Lotto/results/TillDec1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirin\Documents\GitHub\heartrhythmbox\playground\Lotto\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaoThon\tThon\heartrhythmbox\playground\Lotto\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1DD187-883B-4627-96DA-A9B93A0B5B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C62457-DD10-446F-ABAA-23E621697D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="14032" xr2:uid="{A359F6CC-D3FF-409C-A978-A5408601E6CD}"/>
+    <workbookView xWindow="1900" yWindow="380" windowWidth="26020" windowHeight="14020" activeTab="1" xr2:uid="{A359F6CC-D3FF-409C-A978-A5408601E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="with PM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Model 1</t>
   </si>
@@ -61,6 +62,21 @@
   </si>
   <si>
     <t>w date and PM</t>
+  </si>
+  <si>
+    <t>Model Evaluation Metrics:</t>
+  </si>
+  <si>
+    <t>Mean Absolute Error (MAE): 25.7363</t>
+  </si>
+  <si>
+    <t>Root Mean Squared Error (RMSE): 29.0446</t>
+  </si>
+  <si>
+    <t>Mean Squared Error (MSE): 843.5887</t>
+  </si>
+  <si>
+    <t>R-squared (R2) Score: -0.0381</t>
   </si>
 </sst>
 </file>
@@ -422,18 +438,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83FCE21-7005-4AB4-B703-EA04F3F262E8}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.69921875" defaultRowHeight="21.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="19.7265625" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="19.69921875" style="1"/>
-    <col min="4" max="4" width="26.19921875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="19.69921875" style="1"/>
+    <col min="1" max="3" width="19.7265625" style="1"/>
+    <col min="4" max="4" width="26.1796875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="19.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -447,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -499,7 +515,7 @@
         <v>0.2475</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -532,4 +548,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F41DCF-BB53-43BC-98BE-37D552A467D1}">
+  <dimension ref="B3:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>